--- a/stock_historical_data/1mo/CHALET.NS.xlsx
+++ b/stock_historical_data/1mo/CHALET.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B2" t="n">
-        <v>273.2000122070312</v>
+        <v>294</v>
       </c>
       <c r="C2" t="n">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="D2" t="n">
-        <v>271.25</v>
+        <v>250</v>
       </c>
       <c r="E2" t="n">
-        <v>337.5499877929688</v>
-      </c>
-      <c r="F2" t="n">
-        <v>337.5499877929688</v>
-      </c>
+        <v>276.2000122070312</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>4550249</v>
+        <v>14098843</v>
       </c>
       <c r="H2" t="n">
         <v>2019</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B3" t="n">
-        <v>325.3500061035156</v>
+        <v>273.2000122070312</v>
       </c>
       <c r="C3" t="n">
-        <v>351.9500122070312</v>
+        <v>355</v>
       </c>
       <c r="D3" t="n">
-        <v>310</v>
+        <v>271.25</v>
       </c>
       <c r="E3" t="n">
-        <v>321.9500122070312</v>
+        <v>337.5499877929688</v>
       </c>
       <c r="F3" t="n">
-        <v>321.9500122070312</v>
+        <v>337.5499877929688</v>
       </c>
       <c r="G3" t="n">
-        <v>440598</v>
+        <v>4550249</v>
       </c>
       <c r="H3" t="n">
         <v>2019</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B4" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="C4" t="n">
+        <v>351.9500122070312</v>
+      </c>
+      <c r="D4" t="n">
+        <v>310</v>
+      </c>
+      <c r="E4" t="n">
         <v>321.9500122070312</v>
       </c>
-      <c r="C4" t="n">
-        <v>358.7999877929688</v>
-      </c>
-      <c r="D4" t="n">
-        <v>294.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>349.1499938964844</v>
-      </c>
       <c r="F4" t="n">
-        <v>349.1499938964844</v>
+        <v>321.9500122070312</v>
       </c>
       <c r="G4" t="n">
-        <v>1594891</v>
+        <v>440598</v>
       </c>
       <c r="H4" t="n">
         <v>2019</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B5" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="C5" t="n">
+        <v>358.7999877929688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="E5" t="n">
         <v>349.1499938964844</v>
       </c>
-      <c r="C5" t="n">
-        <v>350</v>
-      </c>
-      <c r="D5" t="n">
-        <v>300.3999938964844</v>
-      </c>
-      <c r="E5" t="n">
-        <v>317.9500122070312</v>
-      </c>
       <c r="F5" t="n">
-        <v>317.9500122070312</v>
+        <v>349.1499938964844</v>
       </c>
       <c r="G5" t="n">
-        <v>662509</v>
+        <v>1594891</v>
       </c>
       <c r="H5" t="n">
         <v>2019</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>349.1499938964844</v>
       </c>
       <c r="C6" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="D6" t="n">
-        <v>277.5</v>
+        <v>300.3999938964844</v>
       </c>
       <c r="E6" t="n">
-        <v>320.1499938964844</v>
+        <v>317.9500122070312</v>
       </c>
       <c r="F6" t="n">
-        <v>320.1499938964844</v>
+        <v>317.9500122070312</v>
       </c>
       <c r="G6" t="n">
-        <v>1329921</v>
+        <v>662509</v>
       </c>
       <c r="H6" t="n">
         <v>2019</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B7" t="n">
-        <v>315.8500061035156</v>
+        <v>320</v>
       </c>
       <c r="C7" t="n">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D7" t="n">
-        <v>282.1499938964844</v>
+        <v>277.5</v>
       </c>
       <c r="E7" t="n">
-        <v>293.1000061035156</v>
+        <v>320.1499938964844</v>
       </c>
       <c r="F7" t="n">
-        <v>293.1000061035156</v>
+        <v>320.1499938964844</v>
       </c>
       <c r="G7" t="n">
-        <v>1123556</v>
+        <v>1329921</v>
       </c>
       <c r="H7" t="n">
         <v>2019</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B8" t="n">
+        <v>315.8500061035156</v>
+      </c>
+      <c r="C8" t="n">
+        <v>352</v>
+      </c>
+      <c r="D8" t="n">
+        <v>282.1499938964844</v>
+      </c>
+      <c r="E8" t="n">
         <v>293.1000061035156</v>
       </c>
-      <c r="C8" t="n">
-        <v>350</v>
-      </c>
-      <c r="D8" t="n">
-        <v>280</v>
-      </c>
-      <c r="E8" t="n">
-        <v>315.8500061035156</v>
-      </c>
       <c r="F8" t="n">
-        <v>315.8500061035156</v>
+        <v>293.1000061035156</v>
       </c>
       <c r="G8" t="n">
-        <v>1454394</v>
+        <v>1123556</v>
       </c>
       <c r="H8" t="n">
         <v>2019</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B9" t="n">
-        <v>319.9500122070312</v>
+        <v>293.1000061035156</v>
       </c>
       <c r="C9" t="n">
-        <v>348.1499938964844</v>
+        <v>350</v>
       </c>
       <c r="D9" t="n">
-        <v>293.2000122070312</v>
+        <v>280</v>
       </c>
       <c r="E9" t="n">
-        <v>325.5</v>
+        <v>315.8500061035156</v>
       </c>
       <c r="F9" t="n">
-        <v>325.5</v>
+        <v>315.8500061035156</v>
       </c>
       <c r="G9" t="n">
-        <v>519612</v>
+        <v>1454394</v>
       </c>
       <c r="H9" t="n">
         <v>2019</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B10" t="n">
-        <v>317.75</v>
+        <v>319.9500122070312</v>
       </c>
       <c r="C10" t="n">
-        <v>379.4500122070312</v>
+        <v>348.1499938964844</v>
       </c>
       <c r="D10" t="n">
-        <v>314</v>
+        <v>293.2000122070312</v>
       </c>
       <c r="E10" t="n">
-        <v>354.9500122070312</v>
+        <v>325.5</v>
       </c>
       <c r="F10" t="n">
-        <v>354.9500122070312</v>
+        <v>325.5</v>
       </c>
       <c r="G10" t="n">
-        <v>906560</v>
+        <v>519612</v>
       </c>
       <c r="H10" t="n">
         <v>2019</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B11" t="n">
-        <v>358.7999877929688</v>
+        <v>317.75</v>
       </c>
       <c r="C11" t="n">
-        <v>402</v>
+        <v>379.4500122070312</v>
       </c>
       <c r="D11" t="n">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E11" t="n">
-        <v>348.9500122070312</v>
+        <v>354.9500122070312</v>
       </c>
       <c r="F11" t="n">
-        <v>348.9500122070312</v>
+        <v>354.9500122070312</v>
       </c>
       <c r="G11" t="n">
-        <v>2127094</v>
+        <v>906560</v>
       </c>
       <c r="H11" t="n">
         <v>2019</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B12" t="n">
-        <v>350.1000061035156</v>
+        <v>358.7999877929688</v>
       </c>
       <c r="C12" t="n">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="D12" t="n">
         <v>320</v>
       </c>
       <c r="E12" t="n">
-        <v>329.8999938964844</v>
+        <v>348.9500122070312</v>
       </c>
       <c r="F12" t="n">
-        <v>329.8999938964844</v>
+        <v>348.9500122070312</v>
       </c>
       <c r="G12" t="n">
-        <v>1680245</v>
+        <v>2127094</v>
       </c>
       <c r="H12" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B13" t="n">
-        <v>321.25</v>
+        <v>350.1000061035156</v>
       </c>
       <c r="C13" t="n">
-        <v>379.9500122070312</v>
+        <v>364</v>
       </c>
       <c r="D13" t="n">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="E13" t="n">
-        <v>328.5</v>
+        <v>329.8999938964844</v>
       </c>
       <c r="F13" t="n">
-        <v>328.5</v>
+        <v>329.8999938964844</v>
       </c>
       <c r="G13" t="n">
-        <v>1475415</v>
+        <v>1680245</v>
       </c>
       <c r="H13" t="n">
         <v>2020</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B14" t="n">
-        <v>346</v>
+        <v>321.25</v>
       </c>
       <c r="C14" t="n">
-        <v>349.9500122070312</v>
+        <v>379.9500122070312</v>
       </c>
       <c r="D14" t="n">
-        <v>179.8999938964844</v>
+        <v>285</v>
       </c>
       <c r="E14" t="n">
-        <v>205.1499938964844</v>
+        <v>328.5</v>
       </c>
       <c r="F14" t="n">
-        <v>205.1499938964844</v>
+        <v>328.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1565576</v>
+        <v>1475415</v>
       </c>
       <c r="H14" t="n">
         <v>2020</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B15" t="n">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="C15" t="n">
-        <v>220</v>
+        <v>349.9500122070312</v>
       </c>
       <c r="D15" t="n">
-        <v>142.5500030517578</v>
+        <v>179.8999938964844</v>
       </c>
       <c r="E15" t="n">
-        <v>147.8000030517578</v>
+        <v>205.1499938964844</v>
       </c>
       <c r="F15" t="n">
-        <v>147.8000030517578</v>
+        <v>205.1499938964844</v>
       </c>
       <c r="G15" t="n">
-        <v>2834534</v>
+        <v>1565576</v>
       </c>
       <c r="H15" t="n">
         <v>2020</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B16" t="n">
+        <v>220</v>
+      </c>
+      <c r="C16" t="n">
+        <v>220</v>
+      </c>
+      <c r="D16" t="n">
+        <v>142.5500030517578</v>
+      </c>
+      <c r="E16" t="n">
         <v>147.8000030517578</v>
       </c>
-      <c r="C16" t="n">
-        <v>148</v>
-      </c>
-      <c r="D16" t="n">
-        <v>99.59999847412109</v>
-      </c>
-      <c r="E16" t="n">
-        <v>100.4000015258789</v>
-      </c>
       <c r="F16" t="n">
-        <v>100.4000015258789</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="G16" t="n">
-        <v>2713992</v>
+        <v>2834534</v>
       </c>
       <c r="H16" t="n">
         <v>2020</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B17" t="n">
-        <v>115</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="C17" t="n">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D17" t="n">
-        <v>109.8499984741211</v>
+        <v>99.59999847412109</v>
       </c>
       <c r="E17" t="n">
-        <v>131.1999969482422</v>
+        <v>100.4000015258789</v>
       </c>
       <c r="F17" t="n">
-        <v>131.1999969482422</v>
+        <v>100.4000015258789</v>
       </c>
       <c r="G17" t="n">
-        <v>16750953</v>
+        <v>2713992</v>
       </c>
       <c r="H17" t="n">
         <v>2020</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B18" t="n">
-        <v>131.25</v>
+        <v>115</v>
       </c>
       <c r="C18" t="n">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D18" t="n">
-        <v>126</v>
+        <v>109.8499984741211</v>
       </c>
       <c r="E18" t="n">
-        <v>127.9000015258789</v>
+        <v>131.1999969482422</v>
       </c>
       <c r="F18" t="n">
-        <v>127.9000015258789</v>
+        <v>131.1999969482422</v>
       </c>
       <c r="G18" t="n">
-        <v>3795506</v>
+        <v>16750953</v>
       </c>
       <c r="H18" t="n">
         <v>2020</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B19" t="n">
+        <v>131.25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>157</v>
+      </c>
+      <c r="D19" t="n">
+        <v>126</v>
+      </c>
+      <c r="E19" t="n">
         <v>127.9000015258789</v>
       </c>
-      <c r="C19" t="n">
-        <v>178</v>
-      </c>
-      <c r="D19" t="n">
-        <v>127</v>
-      </c>
-      <c r="E19" t="n">
-        <v>156.3000030517578</v>
-      </c>
       <c r="F19" t="n">
-        <v>156.3000030517578</v>
+        <v>127.9000015258789</v>
       </c>
       <c r="G19" t="n">
-        <v>9430976</v>
+        <v>3795506</v>
       </c>
       <c r="H19" t="n">
         <v>2020</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B20" t="n">
-        <v>161.4499969482422</v>
+        <v>127.9000015258789</v>
       </c>
       <c r="C20" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D20" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E20" t="n">
-        <v>138.3500061035156</v>
+        <v>156.3000030517578</v>
       </c>
       <c r="F20" t="n">
-        <v>138.3500061035156</v>
+        <v>156.3000030517578</v>
       </c>
       <c r="G20" t="n">
-        <v>3056084</v>
+        <v>9430976</v>
       </c>
       <c r="H20" t="n">
         <v>2020</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,45 +1511,45 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B21" t="n">
-        <v>141.3999938964844</v>
+        <v>161.4499969482422</v>
       </c>
       <c r="C21" t="n">
-        <v>149.75</v>
+        <v>164</v>
       </c>
       <c r="D21" t="n">
-        <v>127.3499984741211</v>
+        <v>135</v>
       </c>
       <c r="E21" t="n">
-        <v>136.3999938964844</v>
+        <v>138.3500061035156</v>
       </c>
       <c r="F21" t="n">
-        <v>136.3999938964844</v>
+        <v>138.3500061035156</v>
       </c>
       <c r="G21" t="n">
-        <v>2153746</v>
+        <v>3056084</v>
       </c>
       <c r="H21" t="n">
         <v>2020</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1581,36 +1573,36 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B22" t="n">
-        <v>135.8000030517578</v>
+        <v>141.3999938964844</v>
       </c>
       <c r="C22" t="n">
-        <v>161.8999938964844</v>
+        <v>149.75</v>
       </c>
       <c r="D22" t="n">
-        <v>135</v>
+        <v>127.3499984741211</v>
       </c>
       <c r="E22" t="n">
-        <v>150.8500061035156</v>
+        <v>136.3999938964844</v>
       </c>
       <c r="F22" t="n">
-        <v>150.8500061035156</v>
+        <v>136.3999938964844</v>
       </c>
       <c r="G22" t="n">
-        <v>5064019</v>
+        <v>2153746</v>
       </c>
       <c r="H22" t="n">
         <v>2020</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B23" t="n">
-        <v>150.8999938964844</v>
+        <v>135.8000030517578</v>
       </c>
       <c r="C23" t="n">
-        <v>217.6999969482422</v>
+        <v>161.8999938964844</v>
       </c>
       <c r="D23" t="n">
-        <v>149.75</v>
+        <v>135</v>
       </c>
       <c r="E23" t="n">
-        <v>183.3999938964844</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="F23" t="n">
-        <v>183.3999938964844</v>
+        <v>150.8500061035156</v>
       </c>
       <c r="G23" t="n">
-        <v>14089110</v>
+        <v>5064019</v>
       </c>
       <c r="H23" t="n">
         <v>2020</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,45 +1670,45 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B24" t="n">
-        <v>185.3999938964844</v>
+        <v>150.8999938964844</v>
       </c>
       <c r="C24" t="n">
-        <v>194.8000030517578</v>
+        <v>217.6999969482422</v>
       </c>
       <c r="D24" t="n">
-        <v>161.3000030517578</v>
+        <v>149.75</v>
       </c>
       <c r="E24" t="n">
-        <v>171.3999938964844</v>
+        <v>183.3999938964844</v>
       </c>
       <c r="F24" t="n">
-        <v>171.3999938964844</v>
+        <v>183.3999938964844</v>
       </c>
       <c r="G24" t="n">
-        <v>3965215</v>
+        <v>14089110</v>
       </c>
       <c r="H24" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,45 +1723,45 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B25" t="n">
-        <v>173.6999969482422</v>
+        <v>185.3999938964844</v>
       </c>
       <c r="C25" t="n">
-        <v>182.1000061035156</v>
+        <v>194.8000030517578</v>
       </c>
       <c r="D25" t="n">
-        <v>162.6000061035156</v>
+        <v>161.3000030517578</v>
       </c>
       <c r="E25" t="n">
-        <v>166.0500030517578</v>
+        <v>171.3999938964844</v>
       </c>
       <c r="F25" t="n">
-        <v>166.0500030517578</v>
+        <v>171.3999938964844</v>
       </c>
       <c r="G25" t="n">
-        <v>5637975</v>
+        <v>3965215</v>
       </c>
       <c r="H25" t="n">
         <v>2021</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B26" t="n">
-        <v>166.3999938964844</v>
+        <v>173.6999969482422</v>
       </c>
       <c r="C26" t="n">
-        <v>186.8999938964844</v>
+        <v>182.1000061035156</v>
       </c>
       <c r="D26" t="n">
-        <v>145.6999969482422</v>
+        <v>162.6000061035156</v>
       </c>
       <c r="E26" t="n">
-        <v>146.3000030517578</v>
+        <v>166.0500030517578</v>
       </c>
       <c r="F26" t="n">
-        <v>146.3000030517578</v>
+        <v>166.0500030517578</v>
       </c>
       <c r="G26" t="n">
-        <v>5915239</v>
+        <v>5637975</v>
       </c>
       <c r="H26" t="n">
         <v>2021</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B27" t="n">
-        <v>148.5</v>
+        <v>166.3999938964844</v>
       </c>
       <c r="C27" t="n">
-        <v>155</v>
+        <v>186.8999938964844</v>
       </c>
       <c r="D27" t="n">
-        <v>122.6500015258789</v>
+        <v>145.6999969482422</v>
       </c>
       <c r="E27" t="n">
-        <v>143.1999969482422</v>
+        <v>146.3000030517578</v>
       </c>
       <c r="F27" t="n">
-        <v>143.1999969482422</v>
+        <v>146.3000030517578</v>
       </c>
       <c r="G27" t="n">
-        <v>3721127</v>
+        <v>5915239</v>
       </c>
       <c r="H27" t="n">
         <v>2021</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,45 +1882,45 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B28" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>155</v>
+      </c>
+      <c r="D28" t="n">
+        <v>122.6500015258789</v>
+      </c>
+      <c r="E28" t="n">
         <v>143.1999969482422</v>
       </c>
-      <c r="C28" t="n">
-        <v>184.8000030517578</v>
-      </c>
-      <c r="D28" t="n">
-        <v>139.0500030517578</v>
-      </c>
-      <c r="E28" t="n">
-        <v>176.5</v>
-      </c>
       <c r="F28" t="n">
-        <v>176.5</v>
+        <v>143.1999969482422</v>
       </c>
       <c r="G28" t="n">
-        <v>6816756</v>
+        <v>3721127</v>
       </c>
       <c r="H28" t="n">
         <v>2021</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,45 +1935,45 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B29" t="n">
+        <v>143.1999969482422</v>
+      </c>
+      <c r="C29" t="n">
+        <v>184.8000030517578</v>
+      </c>
+      <c r="D29" t="n">
+        <v>139.0500030517578</v>
+      </c>
+      <c r="E29" t="n">
         <v>176.5</v>
       </c>
-      <c r="C29" t="n">
-        <v>196</v>
-      </c>
-      <c r="D29" t="n">
-        <v>171.1000061035156</v>
-      </c>
-      <c r="E29" t="n">
-        <v>177.1999969482422</v>
-      </c>
       <c r="F29" t="n">
-        <v>177.1999969482422</v>
+        <v>176.5</v>
       </c>
       <c r="G29" t="n">
-        <v>8165403</v>
+        <v>6816756</v>
       </c>
       <c r="H29" t="n">
         <v>2021</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B30" t="n">
-        <v>178.4499969482422</v>
+        <v>176.5</v>
       </c>
       <c r="C30" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D30" t="n">
-        <v>170.1999969482422</v>
+        <v>171.1000061035156</v>
       </c>
       <c r="E30" t="n">
-        <v>177.0500030517578</v>
+        <v>177.1999969482422</v>
       </c>
       <c r="F30" t="n">
-        <v>177.0500030517578</v>
+        <v>177.1999969482422</v>
       </c>
       <c r="G30" t="n">
-        <v>10269273</v>
+        <v>8165403</v>
       </c>
       <c r="H30" t="n">
         <v>2021</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B31" t="n">
-        <v>180.5</v>
+        <v>178.4499969482422</v>
       </c>
       <c r="C31" t="n">
-        <v>180.5</v>
+        <v>199</v>
       </c>
       <c r="D31" t="n">
-        <v>159.0500030517578</v>
+        <v>170.1999969482422</v>
       </c>
       <c r="E31" t="n">
-        <v>170.8999938964844</v>
+        <v>177.0500030517578</v>
       </c>
       <c r="F31" t="n">
-        <v>170.8999938964844</v>
+        <v>177.0500030517578</v>
       </c>
       <c r="G31" t="n">
-        <v>3471129</v>
+        <v>10269273</v>
       </c>
       <c r="H31" t="n">
         <v>2021</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2111,36 +2103,36 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B32" t="n">
-        <v>172.1999969482422</v>
+        <v>180.5</v>
       </c>
       <c r="C32" t="n">
-        <v>255.6000061035156</v>
+        <v>180.5</v>
       </c>
       <c r="D32" t="n">
-        <v>168</v>
+        <v>159.0500030517578</v>
       </c>
       <c r="E32" t="n">
-        <v>239.8999938964844</v>
+        <v>170.8999938964844</v>
       </c>
       <c r="F32" t="n">
-        <v>239.8999938964844</v>
+        <v>170.8999938964844</v>
       </c>
       <c r="G32" t="n">
-        <v>32818630</v>
+        <v>3471129</v>
       </c>
       <c r="H32" t="n">
         <v>2021</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2164,36 +2156,36 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B33" t="n">
-        <v>239.6999969482422</v>
+        <v>172.1999969482422</v>
       </c>
       <c r="C33" t="n">
-        <v>269.5</v>
+        <v>255.6000061035156</v>
       </c>
       <c r="D33" t="n">
-        <v>223.5500030517578</v>
+        <v>168</v>
       </c>
       <c r="E33" t="n">
-        <v>235.9499969482422</v>
+        <v>239.8999938964844</v>
       </c>
       <c r="F33" t="n">
-        <v>235.9499969482422</v>
+        <v>239.8999938964844</v>
       </c>
       <c r="G33" t="n">
-        <v>10624885</v>
+        <v>32818630</v>
       </c>
       <c r="H33" t="n">
         <v>2021</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B34" t="n">
-        <v>238.8000030517578</v>
+        <v>239.6999969482422</v>
       </c>
       <c r="C34" t="n">
-        <v>292.7999877929688</v>
+        <v>269.5</v>
       </c>
       <c r="D34" t="n">
-        <v>220</v>
+        <v>223.5500030517578</v>
       </c>
       <c r="E34" t="n">
-        <v>237.8500061035156</v>
+        <v>235.9499969482422</v>
       </c>
       <c r="F34" t="n">
-        <v>237.8500061035156</v>
+        <v>235.9499969482422</v>
       </c>
       <c r="G34" t="n">
-        <v>15683787</v>
+        <v>10624885</v>
       </c>
       <c r="H34" t="n">
         <v>2021</v>
       </c>
       <c r="I34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B35" t="n">
-        <v>235</v>
+        <v>238.8000030517578</v>
       </c>
       <c r="C35" t="n">
-        <v>247</v>
+        <v>292.7999877929688</v>
       </c>
       <c r="D35" t="n">
-        <v>211.0500030517578</v>
+        <v>220</v>
       </c>
       <c r="E35" t="n">
-        <v>215.8000030517578</v>
+        <v>237.8500061035156</v>
       </c>
       <c r="F35" t="n">
-        <v>215.8000030517578</v>
+        <v>237.8500061035156</v>
       </c>
       <c r="G35" t="n">
-        <v>5554678</v>
+        <v>15683787</v>
       </c>
       <c r="H35" t="n">
         <v>2021</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B36" t="n">
-        <v>214.4499969482422</v>
+        <v>235</v>
       </c>
       <c r="C36" t="n">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D36" t="n">
-        <v>212.8000030517578</v>
+        <v>211.0500030517578</v>
       </c>
       <c r="E36" t="n">
-        <v>258.5499877929688</v>
+        <v>215.8000030517578</v>
       </c>
       <c r="F36" t="n">
-        <v>258.5499877929688</v>
+        <v>215.8000030517578</v>
       </c>
       <c r="G36" t="n">
-        <v>6039274</v>
+        <v>5554678</v>
       </c>
       <c r="H36" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B37" t="n">
-        <v>257</v>
+        <v>214.4499969482422</v>
       </c>
       <c r="C37" t="n">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="D37" t="n">
-        <v>232</v>
+        <v>212.8000030517578</v>
       </c>
       <c r="E37" t="n">
-        <v>262.25</v>
+        <v>258.5499877929688</v>
       </c>
       <c r="F37" t="n">
-        <v>262.25</v>
+        <v>258.5499877929688</v>
       </c>
       <c r="G37" t="n">
-        <v>17452593</v>
+        <v>6039274</v>
       </c>
       <c r="H37" t="n">
         <v>2022</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B38" t="n">
+        <v>257</v>
+      </c>
+      <c r="C38" t="n">
+        <v>302</v>
+      </c>
+      <c r="D38" t="n">
+        <v>232</v>
+      </c>
+      <c r="E38" t="n">
         <v>262.25</v>
       </c>
-      <c r="C38" t="n">
-        <v>321.9500122070312</v>
-      </c>
-      <c r="D38" t="n">
-        <v>247.5500030517578</v>
-      </c>
-      <c r="E38" t="n">
-        <v>302.3500061035156</v>
-      </c>
       <c r="F38" t="n">
-        <v>302.3500061035156</v>
+        <v>262.25</v>
       </c>
       <c r="G38" t="n">
-        <v>23759723</v>
+        <v>17452593</v>
       </c>
       <c r="H38" t="n">
         <v>2022</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B39" t="n">
-        <v>304.75</v>
+        <v>262.25</v>
       </c>
       <c r="C39" t="n">
-        <v>332.7000122070312</v>
+        <v>321.9500122070312</v>
       </c>
       <c r="D39" t="n">
-        <v>275</v>
+        <v>247.5500030517578</v>
       </c>
       <c r="E39" t="n">
-        <v>298.75</v>
+        <v>302.3500061035156</v>
       </c>
       <c r="F39" t="n">
-        <v>298.75</v>
+        <v>302.3500061035156</v>
       </c>
       <c r="G39" t="n">
-        <v>6359385</v>
+        <v>23759723</v>
       </c>
       <c r="H39" t="n">
         <v>2022</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B40" t="n">
-        <v>297.8999938964844</v>
+        <v>304.75</v>
       </c>
       <c r="C40" t="n">
-        <v>315</v>
+        <v>332.7000122070312</v>
       </c>
       <c r="D40" t="n">
-        <v>275.2999877929688</v>
+        <v>275</v>
       </c>
       <c r="E40" t="n">
-        <v>297.0499877929688</v>
+        <v>298.75</v>
       </c>
       <c r="F40" t="n">
-        <v>297.0499877929688</v>
+        <v>298.75</v>
       </c>
       <c r="G40" t="n">
-        <v>5432934</v>
+        <v>6359385</v>
       </c>
       <c r="H40" t="n">
         <v>2022</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B41" t="n">
-        <v>297.5</v>
+        <v>297.8999938964844</v>
       </c>
       <c r="C41" t="n">
-        <v>323.6499938964844</v>
+        <v>315</v>
       </c>
       <c r="D41" t="n">
-        <v>276.7000122070312</v>
+        <v>275.2999877929688</v>
       </c>
       <c r="E41" t="n">
-        <v>314.6499938964844</v>
+        <v>297.0499877929688</v>
       </c>
       <c r="F41" t="n">
-        <v>314.6499938964844</v>
+        <v>297.0499877929688</v>
       </c>
       <c r="G41" t="n">
-        <v>5603585</v>
+        <v>5432934</v>
       </c>
       <c r="H41" t="n">
         <v>2022</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B42" t="n">
-        <v>314.7999877929688</v>
+        <v>297.5</v>
       </c>
       <c r="C42" t="n">
-        <v>345</v>
+        <v>323.6499938964844</v>
       </c>
       <c r="D42" t="n">
-        <v>306.7000122070312</v>
+        <v>276.7000122070312</v>
       </c>
       <c r="E42" t="n">
-        <v>317.8500061035156</v>
+        <v>314.6499938964844</v>
       </c>
       <c r="F42" t="n">
-        <v>317.8500061035156</v>
+        <v>314.6499938964844</v>
       </c>
       <c r="G42" t="n">
-        <v>7001732</v>
+        <v>5603585</v>
       </c>
       <c r="H42" t="n">
         <v>2022</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B43" t="n">
-        <v>317</v>
+        <v>314.7999877929688</v>
       </c>
       <c r="C43" t="n">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="D43" t="n">
-        <v>308.0499877929688</v>
+        <v>306.7000122070312</v>
       </c>
       <c r="E43" t="n">
-        <v>322.2999877929688</v>
+        <v>317.8500061035156</v>
       </c>
       <c r="F43" t="n">
-        <v>322.2999877929688</v>
+        <v>317.8500061035156</v>
       </c>
       <c r="G43" t="n">
-        <v>4965664</v>
+        <v>7001732</v>
       </c>
       <c r="H43" t="n">
         <v>2022</v>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B44" t="n">
+        <v>317</v>
+      </c>
+      <c r="C44" t="n">
+        <v>361</v>
+      </c>
+      <c r="D44" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="E44" t="n">
         <v>322.2999877929688</v>
       </c>
-      <c r="C44" t="n">
-        <v>363</v>
-      </c>
-      <c r="D44" t="n">
-        <v>320.2000122070312</v>
-      </c>
-      <c r="E44" t="n">
-        <v>353.3500061035156</v>
-      </c>
       <c r="F44" t="n">
-        <v>353.3500061035156</v>
+        <v>322.2999877929688</v>
       </c>
       <c r="G44" t="n">
-        <v>6498486</v>
+        <v>4965664</v>
       </c>
       <c r="H44" t="n">
         <v>2022</v>
       </c>
       <c r="I44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B45" t="n">
-        <v>353.25</v>
+        <v>322.2999877929688</v>
       </c>
       <c r="C45" t="n">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="D45" t="n">
-        <v>349.7999877929688</v>
+        <v>320.2000122070312</v>
       </c>
       <c r="E45" t="n">
-        <v>365.25</v>
+        <v>353.3500061035156</v>
       </c>
       <c r="F45" t="n">
-        <v>365.25</v>
+        <v>353.3500061035156</v>
       </c>
       <c r="G45" t="n">
-        <v>5906272</v>
+        <v>6498486</v>
       </c>
       <c r="H45" t="n">
         <v>2022</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B46" t="n">
-        <v>365</v>
+        <v>353.25</v>
       </c>
       <c r="C46" t="n">
-        <v>404.9500122070312</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>303.9500122070312</v>
+        <v>349.7999877929688</v>
       </c>
       <c r="E46" t="n">
-        <v>372.3999938964844</v>
+        <v>365.25</v>
       </c>
       <c r="F46" t="n">
-        <v>372.3999938964844</v>
+        <v>365.25</v>
       </c>
       <c r="G46" t="n">
-        <v>4473087</v>
+        <v>5906272</v>
       </c>
       <c r="H46" t="n">
         <v>2022</v>
       </c>
       <c r="I46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B47" t="n">
-        <v>372.5</v>
+        <v>365</v>
       </c>
       <c r="C47" t="n">
-        <v>376.2999877929688</v>
+        <v>404.9500122070312</v>
       </c>
       <c r="D47" t="n">
-        <v>313.2999877929688</v>
+        <v>303.9500122070312</v>
       </c>
       <c r="E47" t="n">
-        <v>347.5499877929688</v>
+        <v>372.3999938964844</v>
       </c>
       <c r="F47" t="n">
-        <v>347.5499877929688</v>
+        <v>372.3999938964844</v>
       </c>
       <c r="G47" t="n">
-        <v>2205350</v>
+        <v>4473087</v>
       </c>
       <c r="H47" t="n">
         <v>2022</v>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B48" t="n">
-        <v>349.5</v>
+        <v>372.5</v>
       </c>
       <c r="C48" t="n">
-        <v>366.8999938964844</v>
+        <v>376.2999877929688</v>
       </c>
       <c r="D48" t="n">
-        <v>327</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="E48" t="n">
-        <v>355.1499938964844</v>
+        <v>347.5499877929688</v>
       </c>
       <c r="F48" t="n">
-        <v>355.1499938964844</v>
+        <v>347.5499877929688</v>
       </c>
       <c r="G48" t="n">
-        <v>5213780</v>
+        <v>2205350</v>
       </c>
       <c r="H48" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B49" t="n">
-        <v>357.6499938964844</v>
+        <v>349.5</v>
       </c>
       <c r="C49" t="n">
-        <v>387.5499877929688</v>
+        <v>366.8999938964844</v>
       </c>
       <c r="D49" t="n">
-        <v>347.5499877929688</v>
+        <v>327</v>
       </c>
       <c r="E49" t="n">
-        <v>366.7000122070312</v>
+        <v>355.1499938964844</v>
       </c>
       <c r="F49" t="n">
-        <v>366.7000122070312</v>
+        <v>355.1499938964844</v>
       </c>
       <c r="G49" t="n">
-        <v>3463454</v>
+        <v>5213780</v>
       </c>
       <c r="H49" t="n">
         <v>2023</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3065,36 +3057,36 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B50" t="n">
-        <v>367.0499877929688</v>
+        <v>357.6499938964844</v>
       </c>
       <c r="C50" t="n">
-        <v>382</v>
+        <v>387.5499877929688</v>
       </c>
       <c r="D50" t="n">
-        <v>357</v>
+        <v>347.5499877929688</v>
       </c>
       <c r="E50" t="n">
-        <v>363.1499938964844</v>
+        <v>366.7000122070312</v>
       </c>
       <c r="F50" t="n">
-        <v>363.1499938964844</v>
+        <v>366.7000122070312</v>
       </c>
       <c r="G50" t="n">
-        <v>2388818</v>
+        <v>3463454</v>
       </c>
       <c r="H50" t="n">
         <v>2023</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3118,36 +3110,36 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B51" t="n">
+        <v>367.0499877929688</v>
+      </c>
+      <c r="C51" t="n">
+        <v>382</v>
+      </c>
+      <c r="D51" t="n">
+        <v>357</v>
+      </c>
+      <c r="E51" t="n">
         <v>363.1499938964844</v>
       </c>
-      <c r="C51" t="n">
-        <v>385</v>
-      </c>
-      <c r="D51" t="n">
-        <v>356.1000061035156</v>
-      </c>
-      <c r="E51" t="n">
-        <v>384.1000061035156</v>
-      </c>
       <c r="F51" t="n">
-        <v>384.1000061035156</v>
+        <v>363.1499938964844</v>
       </c>
       <c r="G51" t="n">
-        <v>4380611</v>
+        <v>2388818</v>
       </c>
       <c r="H51" t="n">
         <v>2023</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3171,36 +3163,36 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B52" t="n">
+        <v>363.1499938964844</v>
+      </c>
+      <c r="C52" t="n">
+        <v>385</v>
+      </c>
+      <c r="D52" t="n">
+        <v>356.1000061035156</v>
+      </c>
+      <c r="E52" t="n">
         <v>384.1000061035156</v>
       </c>
-      <c r="C52" t="n">
-        <v>450</v>
-      </c>
-      <c r="D52" t="n">
-        <v>376.0499877929688</v>
-      </c>
-      <c r="E52" t="n">
-        <v>433.2000122070312</v>
-      </c>
       <c r="F52" t="n">
-        <v>433.2000122070312</v>
+        <v>384.1000061035156</v>
       </c>
       <c r="G52" t="n">
-        <v>9214214</v>
+        <v>4380611</v>
       </c>
       <c r="H52" t="n">
         <v>2023</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3229,31 +3221,31 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B53" t="n">
-        <v>434.8999938964844</v>
+        <v>384.1000061035156</v>
       </c>
       <c r="C53" t="n">
-        <v>446.6499938964844</v>
+        <v>450</v>
       </c>
       <c r="D53" t="n">
-        <v>401.5499877929688</v>
+        <v>376.0499877929688</v>
       </c>
       <c r="E53" t="n">
-        <v>429.1000061035156</v>
+        <v>433.2000122070312</v>
       </c>
       <c r="F53" t="n">
-        <v>429.1000061035156</v>
+        <v>433.2000122070312</v>
       </c>
       <c r="G53" t="n">
-        <v>3166635</v>
+        <v>9214214</v>
       </c>
       <c r="H53" t="n">
         <v>2023</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B54" t="n">
-        <v>433</v>
+        <v>434.8999938964844</v>
       </c>
       <c r="C54" t="n">
-        <v>497</v>
+        <v>446.6499938964844</v>
       </c>
       <c r="D54" t="n">
-        <v>430.5</v>
+        <v>401.5499877929688</v>
       </c>
       <c r="E54" t="n">
-        <v>489</v>
+        <v>429.1000061035156</v>
       </c>
       <c r="F54" t="n">
-        <v>489</v>
+        <v>429.1000061035156</v>
       </c>
       <c r="G54" t="n">
-        <v>5552834</v>
+        <v>3166635</v>
       </c>
       <c r="H54" t="n">
         <v>2023</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B55" t="n">
-        <v>489.75</v>
+        <v>433</v>
       </c>
       <c r="C55" t="n">
-        <v>555</v>
+        <v>497</v>
       </c>
       <c r="D55" t="n">
-        <v>467.7999877929688</v>
+        <v>430.5</v>
       </c>
       <c r="E55" t="n">
-        <v>551.2000122070312</v>
+        <v>489</v>
       </c>
       <c r="F55" t="n">
-        <v>551.2000122070312</v>
+        <v>489</v>
       </c>
       <c r="G55" t="n">
-        <v>5006774</v>
+        <v>5552834</v>
       </c>
       <c r="H55" t="n">
         <v>2023</v>
       </c>
       <c r="I55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B56" t="n">
-        <v>550</v>
+        <v>489.75</v>
       </c>
       <c r="C56" t="n">
-        <v>581.1500244140625</v>
+        <v>555</v>
       </c>
       <c r="D56" t="n">
-        <v>526.4000244140625</v>
+        <v>467.7999877929688</v>
       </c>
       <c r="E56" t="n">
-        <v>557.4500122070312</v>
+        <v>551.2000122070312</v>
       </c>
       <c r="F56" t="n">
-        <v>557.4500122070312</v>
+        <v>551.2000122070312</v>
       </c>
       <c r="G56" t="n">
-        <v>3477073</v>
+        <v>5006774</v>
       </c>
       <c r="H56" t="n">
         <v>2023</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3441,31 +3433,31 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B57" t="n">
+        <v>550</v>
+      </c>
+      <c r="C57" t="n">
+        <v>581.1500244140625</v>
+      </c>
+      <c r="D57" t="n">
+        <v>526.4000244140625</v>
+      </c>
+      <c r="E57" t="n">
         <v>557.4500122070312</v>
       </c>
-      <c r="C57" t="n">
-        <v>621</v>
-      </c>
-      <c r="D57" t="n">
-        <v>535.0999755859375</v>
-      </c>
-      <c r="E57" t="n">
-        <v>547.6500244140625</v>
-      </c>
       <c r="F57" t="n">
-        <v>547.6500244140625</v>
+        <v>557.4500122070312</v>
       </c>
       <c r="G57" t="n">
-        <v>4618474</v>
+        <v>3477073</v>
       </c>
       <c r="H57" t="n">
         <v>2023</v>
       </c>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3494,31 +3486,31 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B58" t="n">
-        <v>545</v>
+        <v>557.4500122070312</v>
       </c>
       <c r="C58" t="n">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="D58" t="n">
-        <v>545</v>
+        <v>535.0999755859375</v>
       </c>
       <c r="E58" t="n">
-        <v>589.75</v>
+        <v>547.6500244140625</v>
       </c>
       <c r="F58" t="n">
-        <v>589.75</v>
+        <v>547.6500244140625</v>
       </c>
       <c r="G58" t="n">
-        <v>2847758</v>
+        <v>4618474</v>
       </c>
       <c r="H58" t="n">
         <v>2023</v>
       </c>
       <c r="I58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B59" t="n">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="C59" t="n">
-        <v>718.2000122070312</v>
+        <v>612</v>
       </c>
       <c r="D59" t="n">
-        <v>561.0499877929688</v>
+        <v>545</v>
       </c>
       <c r="E59" t="n">
-        <v>696.4500122070312</v>
+        <v>589.75</v>
       </c>
       <c r="F59" t="n">
-        <v>696.4500122070312</v>
+        <v>589.75</v>
       </c>
       <c r="G59" t="n">
-        <v>11551454</v>
+        <v>2847758</v>
       </c>
       <c r="H59" t="n">
         <v>2023</v>
       </c>
       <c r="I59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B60" t="n">
-        <v>699</v>
+        <v>588</v>
       </c>
       <c r="C60" t="n">
-        <v>794.8499755859375</v>
+        <v>718.2000122070312</v>
       </c>
       <c r="D60" t="n">
-        <v>671.2999877929688</v>
+        <v>561.0499877929688</v>
       </c>
       <c r="E60" t="n">
-        <v>777.0999755859375</v>
+        <v>696.4500122070312</v>
       </c>
       <c r="F60" t="n">
-        <v>777.0999755859375</v>
+        <v>696.4500122070312</v>
       </c>
       <c r="G60" t="n">
-        <v>7128779</v>
+        <v>11551454</v>
       </c>
       <c r="H60" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B61" t="n">
-        <v>780.9000244140625</v>
+        <v>699</v>
       </c>
       <c r="C61" t="n">
-        <v>891.75</v>
+        <v>794.8499755859375</v>
       </c>
       <c r="D61" t="n">
-        <v>754.2999877929688</v>
+        <v>671.2999877929688</v>
       </c>
       <c r="E61" t="n">
-        <v>810.5</v>
+        <v>777.0999755859375</v>
       </c>
       <c r="F61" t="n">
-        <v>810.5</v>
+        <v>777.0999755859375</v>
       </c>
       <c r="G61" t="n">
-        <v>6573577</v>
+        <v>7128779</v>
       </c>
       <c r="H61" t="n">
         <v>2024</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B62" t="n">
-        <v>818.3499755859375</v>
+        <v>780.9000244140625</v>
       </c>
       <c r="C62" t="n">
-        <v>958</v>
+        <v>891.75</v>
       </c>
       <c r="D62" t="n">
-        <v>681.0499877929688</v>
+        <v>754.2999877929688</v>
       </c>
       <c r="E62" t="n">
-        <v>883.2999877929688</v>
+        <v>810.5</v>
       </c>
       <c r="F62" t="n">
-        <v>883.2999877929688</v>
+        <v>810.5</v>
       </c>
       <c r="G62" t="n">
-        <v>13681693</v>
+        <v>6573577</v>
       </c>
       <c r="H62" t="n">
         <v>2024</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B63" t="n">
-        <v>900.75</v>
+        <v>818.3499755859375</v>
       </c>
       <c r="C63" t="n">
-        <v>930.3499755859375</v>
+        <v>958</v>
       </c>
       <c r="D63" t="n">
-        <v>813</v>
+        <v>681.0499877929688</v>
       </c>
       <c r="E63" t="n">
-        <v>864.9000244140625</v>
+        <v>883.2999877929688</v>
       </c>
       <c r="F63" t="n">
-        <v>864.9000244140625</v>
+        <v>883.2999877929688</v>
       </c>
       <c r="G63" t="n">
-        <v>4179727</v>
+        <v>13681693</v>
       </c>
       <c r="H63" t="n">
         <v>2024</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B64" t="n">
+        <v>900.75</v>
+      </c>
+      <c r="C64" t="n">
+        <v>930.3499755859375</v>
+      </c>
+      <c r="D64" t="n">
+        <v>813</v>
+      </c>
+      <c r="E64" t="n">
         <v>864.9000244140625</v>
       </c>
-      <c r="C64" t="n">
-        <v>918.0499877929688</v>
-      </c>
-      <c r="D64" t="n">
-        <v>741.0499877929688</v>
-      </c>
-      <c r="E64" t="n">
-        <v>784.4000244140625</v>
-      </c>
       <c r="F64" t="n">
-        <v>784.4000244140625</v>
+        <v>864.9000244140625</v>
       </c>
       <c r="G64" t="n">
-        <v>6807585</v>
+        <v>4179727</v>
       </c>
       <c r="H64" t="n">
         <v>2024</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,56 +3857,514 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B65" t="n">
-        <v>818</v>
+        <v>864.9000244140625</v>
       </c>
       <c r="C65" t="n">
-        <v>848</v>
+        <v>918.0499877929688</v>
       </c>
       <c r="D65" t="n">
-        <v>670</v>
+        <v>741.0499877929688</v>
       </c>
       <c r="E65" t="n">
-        <v>843.2000122070312</v>
+        <v>784.4000244140625</v>
       </c>
       <c r="F65" t="n">
-        <v>843.2000122070312</v>
+        <v>784.4000244140625</v>
       </c>
       <c r="G65" t="n">
-        <v>1244241</v>
+        <v>6807585</v>
       </c>
       <c r="H65" t="n">
         <v>2024</v>
       </c>
       <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>18</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B66" t="n">
+        <v>818</v>
+      </c>
+      <c r="C66" t="n">
+        <v>848</v>
+      </c>
+      <c r="D66" t="n">
+        <v>670</v>
+      </c>
+      <c r="E66" t="n">
+        <v>843.2000122070312</v>
+      </c>
+      <c r="F66" t="n">
+        <v>843.2000122070312</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1244241</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I66" t="n">
         <v>6</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
         <v>22</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B67" t="n">
+        <v>804.4500122070312</v>
+      </c>
+      <c r="C67" t="n">
+        <v>909.9000244140625</v>
+      </c>
+      <c r="D67" t="n">
+        <v>753.6500244140625</v>
+      </c>
+      <c r="E67" t="n">
+        <v>843.5499877929688</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>4989737</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>27</v>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B68" t="n">
+        <v>843.0499877929688</v>
+      </c>
+      <c r="C68" t="n">
+        <v>849.3499755859375</v>
+      </c>
+      <c r="D68" t="n">
+        <v>761</v>
+      </c>
+      <c r="E68" t="n">
+        <v>835.1500244140625</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>2018021</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>31</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B69" t="n">
+        <v>856</v>
+      </c>
+      <c r="C69" t="n">
+        <v>937</v>
+      </c>
+      <c r="D69" t="n">
+        <v>830</v>
+      </c>
+      <c r="E69" t="n">
+        <v>879.8499755859375</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>5845087</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>35</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B70" t="n">
+        <v>871.5499877929688</v>
+      </c>
+      <c r="C70" t="n">
+        <v>913</v>
+      </c>
+      <c r="D70" t="n">
+        <v>803.4000244140625</v>
+      </c>
+      <c r="E70" t="n">
+        <v>870.9000244140625</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>6386857</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>40</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B71" t="n">
+        <v>905</v>
+      </c>
+      <c r="C71" t="n">
+        <v>947</v>
+      </c>
+      <c r="D71" t="n">
+        <v>810.7999877929688</v>
+      </c>
+      <c r="E71" t="n">
+        <v>890.0999755859375</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>5351136</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I71" t="n">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>44</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B72" t="n">
+        <v>890</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1052.449951171875</v>
+      </c>
+      <c r="D72" t="n">
+        <v>877</v>
+      </c>
+      <c r="E72" t="n">
+        <v>974.2000122070312</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>21401424</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>48</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B73" t="n">
+        <v>975</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1050.099975585938</v>
+      </c>
+      <c r="D73" t="n">
+        <v>706</v>
+      </c>
+      <c r="E73" t="n">
+        <v>770.9500122070312</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>7861827</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B74" t="n">
+        <v>772</v>
+      </c>
+      <c r="C74" t="n">
+        <v>843</v>
+      </c>
+      <c r="D74" t="n">
+        <v>634.0499877929688</v>
+      </c>
+      <c r="E74" t="n">
+        <v>737.0499877929688</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>9421570</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>5</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B75" t="n">
+        <v>743</v>
+      </c>
+      <c r="C75" t="n">
+        <v>883.2999877929688</v>
+      </c>
+      <c r="D75" t="n">
+        <v>709</v>
+      </c>
+      <c r="E75" t="n">
+        <v>819.4500122070312</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>5145248</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>9</v>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
